--- a/Data/t13.3.xlsx
+++ b/Data/t13.3.xlsx
@@ -402,17 +402,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D2">
-        <v>5065</v>
+        <v>4604</v>
       </c>
       <c r="E2">
-        <v>284</v>
+        <v>-461</v>
       </c>
       <c r="F2">
-        <v>5.94</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="3">
@@ -428,17 +428,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D3">
-        <v>46653</v>
+        <v>47161</v>
       </c>
       <c r="E3">
-        <v>1861</v>
+        <v>508</v>
       </c>
       <c r="F3">
-        <v>4.15</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4">
@@ -454,17 +454,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D4">
-        <v>5599</v>
+        <v>5985</v>
       </c>
       <c r="E4">
-        <v>-786</v>
+        <v>386</v>
       </c>
       <c r="F4">
-        <v>-12.31</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="5">
@@ -480,17 +480,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D5">
-        <v>28967</v>
+        <v>29872</v>
       </c>
       <c r="E5">
-        <v>-668</v>
+        <v>905</v>
       </c>
       <c r="F5">
-        <v>-2.25</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="6">
@@ -506,17 +506,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D6">
-        <v>63638</v>
+        <v>65494</v>
       </c>
       <c r="E6">
-        <v>2932</v>
+        <v>1856</v>
       </c>
       <c r="F6">
-        <v>4.83</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="7">
@@ -532,17 +532,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D7">
-        <v>113434</v>
+        <v>124256</v>
       </c>
       <c r="E7">
-        <v>5790</v>
+        <v>10822</v>
       </c>
       <c r="F7">
-        <v>5.38</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -558,17 +558,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D8">
-        <v>112010</v>
+        <v>115982</v>
       </c>
       <c r="E8">
-        <v>-5918</v>
+        <v>3972</v>
       </c>
       <c r="F8">
-        <v>-5.02</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="9">
@@ -584,17 +584,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D9">
-        <v>13141</v>
+        <v>12421</v>
       </c>
       <c r="E9">
-        <v>-825</v>
+        <v>-720</v>
       </c>
       <c r="F9">
-        <v>-5.91</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="10">
@@ -610,17 +610,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D10">
-        <v>4604</v>
+        <v>4894</v>
       </c>
       <c r="E10">
-        <v>-461</v>
+        <v>290</v>
       </c>
       <c r="F10">
-        <v>-9.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="11">
@@ -636,17 +636,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D11">
-        <v>47161</v>
+        <v>48306</v>
       </c>
       <c r="E11">
-        <v>508</v>
+        <v>1145</v>
       </c>
       <c r="F11">
-        <v>1.09</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="12">
@@ -662,17 +662,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D12">
-        <v>5985</v>
+        <v>6188</v>
       </c>
       <c r="E12">
-        <v>386</v>
+        <v>203</v>
       </c>
       <c r="F12">
-        <v>6.89</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="13">
@@ -688,17 +688,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D13">
-        <v>29872</v>
+        <v>27674</v>
       </c>
       <c r="E13">
-        <v>905</v>
+        <v>-2198</v>
       </c>
       <c r="F13">
-        <v>3.12</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="14">
@@ -714,17 +714,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D14">
-        <v>65494</v>
+        <v>68655</v>
       </c>
       <c r="E14">
-        <v>1856</v>
+        <v>3161</v>
       </c>
       <c r="F14">
-        <v>2.92</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="15">
@@ -740,17 +740,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D15">
-        <v>124256</v>
+        <v>133255</v>
       </c>
       <c r="E15">
-        <v>10822</v>
+        <v>8999</v>
       </c>
       <c r="F15">
-        <v>9.539999999999999</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="16">
@@ -766,17 +766,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D16">
-        <v>115982</v>
+        <v>114287</v>
       </c>
       <c r="E16">
-        <v>3972</v>
+        <v>-1695</v>
       </c>
       <c r="F16">
-        <v>3.55</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="17">
@@ -792,17 +792,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D17">
-        <v>12421</v>
+        <v>13764</v>
       </c>
       <c r="E17">
-        <v>-720</v>
+        <v>1343</v>
       </c>
       <c r="F17">
-        <v>-5.48</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="18">
@@ -818,17 +818,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D18">
-        <v>4894</v>
+        <v>4296</v>
       </c>
       <c r="E18">
-        <v>290</v>
+        <v>-598</v>
       </c>
       <c r="F18">
-        <v>6.3</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="19">
@@ -844,17 +844,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D19">
-        <v>48306</v>
+        <v>48173</v>
       </c>
       <c r="E19">
-        <v>1145</v>
+        <v>-133</v>
       </c>
       <c r="F19">
-        <v>2.43</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="20">
@@ -870,17 +870,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D20">
-        <v>6188</v>
+        <v>6076</v>
       </c>
       <c r="E20">
-        <v>203</v>
+        <v>-112</v>
       </c>
       <c r="F20">
-        <v>3.39</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="21">
@@ -896,17 +896,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D21">
-        <v>27674</v>
+        <v>24703</v>
       </c>
       <c r="E21">
-        <v>-2198</v>
+        <v>-2971</v>
       </c>
       <c r="F21">
-        <v>-7.36</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="22">
@@ -922,17 +922,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D22">
-        <v>68655</v>
+        <v>67946</v>
       </c>
       <c r="E22">
-        <v>3161</v>
+        <v>-709</v>
       </c>
       <c r="F22">
-        <v>4.83</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="23">
@@ -948,17 +948,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D23">
-        <v>133255</v>
+        <v>137164</v>
       </c>
       <c r="E23">
-        <v>8999</v>
+        <v>3909</v>
       </c>
       <c r="F23">
-        <v>7.24</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="24">
@@ -974,17 +974,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D24">
-        <v>114287</v>
+        <v>105628</v>
       </c>
       <c r="E24">
-        <v>-1695</v>
+        <v>-8659</v>
       </c>
       <c r="F24">
-        <v>-1.46</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="25">
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D25">
-        <v>13764</v>
+        <v>10982</v>
       </c>
       <c r="E25">
-        <v>1343</v>
+        <v>-2782</v>
       </c>
       <c r="F25">
-        <v>10.81</v>
+        <v>-20.21</v>
       </c>
     </row>
     <row r="26">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D26">
-        <v>4296</v>
+        <v>3595</v>
       </c>
       <c r="E26">
-        <v>-598</v>
+        <v>-701</v>
       </c>
       <c r="F26">
-        <v>-12.22</v>
+        <v>-16.32</v>
       </c>
     </row>
     <row r="27">
@@ -1052,17 +1052,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D27">
-        <v>48173</v>
+        <v>43214</v>
       </c>
       <c r="E27">
-        <v>-133</v>
+        <v>-4959</v>
       </c>
       <c r="F27">
-        <v>-0.28</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="28">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D28">
-        <v>6076</v>
+        <v>4983</v>
       </c>
       <c r="E28">
-        <v>-112</v>
+        <v>-1093</v>
       </c>
       <c r="F28">
-        <v>-1.81</v>
+        <v>-17.99</v>
       </c>
     </row>
     <row r="29">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D29">
-        <v>24703</v>
+        <v>17332</v>
       </c>
       <c r="E29">
-        <v>-2971</v>
+        <v>-7371</v>
       </c>
       <c r="F29">
-        <v>-10.74</v>
+        <v>-29.84</v>
       </c>
     </row>
     <row r="30">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D30">
-        <v>67946</v>
+        <v>65635</v>
       </c>
       <c r="E30">
-        <v>-709</v>
+        <v>-2311</v>
       </c>
       <c r="F30">
-        <v>-1.03</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="31">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D31">
-        <v>137164</v>
+        <v>133542</v>
       </c>
       <c r="E31">
-        <v>3909</v>
+        <v>-3622</v>
       </c>
       <c r="F31">
-        <v>2.93</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="32">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D32">
-        <v>105628</v>
+        <v>103838</v>
       </c>
       <c r="E32">
-        <v>-8659</v>
+        <v>-1790</v>
       </c>
       <c r="F32">
-        <v>-7.58</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="33">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D33">
-        <v>10982</v>
+        <v>10934</v>
       </c>
       <c r="E33">
-        <v>-2782</v>
+        <v>-48</v>
       </c>
       <c r="F33">
-        <v>-20.21</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="34">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D34">
-        <v>3595</v>
+        <v>3048</v>
       </c>
       <c r="E34">
-        <v>-701</v>
+        <v>-547</v>
       </c>
       <c r="F34">
-        <v>-16.32</v>
+        <v>-15.22</v>
       </c>
     </row>
     <row r="35">
@@ -1260,17 +1260,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D35">
-        <v>43214</v>
+        <v>42099</v>
       </c>
       <c r="E35">
-        <v>-4959</v>
+        <v>-1115</v>
       </c>
       <c r="F35">
-        <v>-10.29</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="36">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D36">
-        <v>4983</v>
+        <v>5678</v>
       </c>
       <c r="E36">
-        <v>-1093</v>
+        <v>695</v>
       </c>
       <c r="F36">
-        <v>-17.99</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="37">
@@ -1312,17 +1312,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D37">
-        <v>17332</v>
+        <v>15447</v>
       </c>
       <c r="E37">
-        <v>-7371</v>
+        <v>-1885</v>
       </c>
       <c r="F37">
-        <v>-29.84</v>
+        <v>-10.88</v>
       </c>
     </row>
     <row r="38">
@@ -1338,17 +1338,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D38">
-        <v>65635</v>
+        <v>66061</v>
       </c>
       <c r="E38">
-        <v>-2311</v>
+        <v>426</v>
       </c>
       <c r="F38">
-        <v>-3.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39">
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D39">
-        <v>133542</v>
+        <v>132640</v>
       </c>
       <c r="E39">
-        <v>-3622</v>
+        <v>-902</v>
       </c>
       <c r="F39">
-        <v>-2.64</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="40">
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D40">
-        <v>103838</v>
+        <v>114675</v>
       </c>
       <c r="E40">
-        <v>-1790</v>
+        <v>10837</v>
       </c>
       <c r="F40">
-        <v>-1.69</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="41">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D41">
-        <v>10934</v>
+        <v>10814</v>
       </c>
       <c r="E41">
-        <v>-48</v>
+        <v>-120</v>
       </c>
       <c r="F41">
-        <v>-0.44</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="42">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D42">
-        <v>3048</v>
+        <v>2685</v>
       </c>
       <c r="E42">
-        <v>-547</v>
+        <v>-363</v>
       </c>
       <c r="F42">
-        <v>-15.22</v>
+        <v>-11.91</v>
       </c>
     </row>
     <row r="43">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D43">
-        <v>42099</v>
+        <v>42246</v>
       </c>
       <c r="E43">
-        <v>-1115</v>
+        <v>147</v>
       </c>
       <c r="F43">
-        <v>-2.58</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="44">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D44">
-        <v>5678</v>
+        <v>5732</v>
       </c>
       <c r="E44">
-        <v>695</v>
+        <v>54</v>
       </c>
       <c r="F44">
-        <v>13.95</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45">
@@ -1520,17 +1520,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D45">
-        <v>15447</v>
+        <v>14643</v>
       </c>
       <c r="E45">
-        <v>-1885</v>
+        <v>-804</v>
       </c>
       <c r="F45">
-        <v>-10.88</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="46">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D46">
-        <v>66061</v>
+        <v>64093</v>
       </c>
       <c r="E46">
-        <v>426</v>
+        <v>-1968</v>
       </c>
       <c r="F46">
-        <v>0.65</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="47">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D47">
-        <v>132640</v>
+        <v>137808</v>
       </c>
       <c r="E47">
-        <v>-902</v>
+        <v>5168</v>
       </c>
       <c r="F47">
-        <v>-0.68</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="48">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D48">
-        <v>114675</v>
+        <v>111411</v>
       </c>
       <c r="E48">
-        <v>10837</v>
+        <v>-3264</v>
       </c>
       <c r="F48">
-        <v>10.44</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="49">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D49">
-        <v>10814</v>
+        <v>10733</v>
       </c>
       <c r="E49">
-        <v>-120</v>
+        <v>-81</v>
       </c>
       <c r="F49">
-        <v>-1.1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="50">
@@ -1650,17 +1650,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D50">
-        <v>2685</v>
+        <v>3162</v>
       </c>
       <c r="E50">
-        <v>-363</v>
+        <v>477</v>
       </c>
       <c r="F50">
-        <v>-11.91</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="51">
@@ -1676,17 +1676,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D51">
-        <v>42246</v>
+        <v>38654</v>
       </c>
       <c r="E51">
-        <v>147</v>
+        <v>-3592</v>
       </c>
       <c r="F51">
-        <v>0.35</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="52">
@@ -1702,17 +1702,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D52">
-        <v>5732</v>
+        <v>6255</v>
       </c>
       <c r="E52">
-        <v>54</v>
+        <v>523</v>
       </c>
       <c r="F52">
-        <v>0.95</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D53">
-        <v>14643</v>
+        <v>13339</v>
       </c>
       <c r="E53">
-        <v>-804</v>
+        <v>-1304</v>
       </c>
       <c r="F53">
-        <v>-5.2</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="54">
@@ -1754,17 +1754,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D54">
-        <v>64093</v>
+        <v>65263</v>
       </c>
       <c r="E54">
-        <v>-1968</v>
+        <v>1170</v>
       </c>
       <c r="F54">
-        <v>-2.98</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="55">
@@ -1780,17 +1780,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D55">
-        <v>137808</v>
+        <v>137457</v>
       </c>
       <c r="E55">
-        <v>5168</v>
+        <v>-351</v>
       </c>
       <c r="F55">
-        <v>3.9</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="56">
@@ -1806,17 +1806,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D56">
-        <v>111411</v>
+        <v>78380</v>
       </c>
       <c r="E56">
-        <v>-3264</v>
+        <v>-33031</v>
       </c>
       <c r="F56">
-        <v>-2.85</v>
+        <v>-29.65</v>
       </c>
     </row>
     <row r="57">
@@ -1832,17 +1832,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D57">
-        <v>10733</v>
+        <v>10360</v>
       </c>
       <c r="E57">
-        <v>-81</v>
+        <v>-373</v>
       </c>
       <c r="F57">
-        <v>-0.75</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="58">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D58">
-        <v>3162</v>
+        <v>2405</v>
       </c>
       <c r="E58">
-        <v>477</v>
+        <v>-757</v>
       </c>
       <c r="F58">
-        <v>17.77</v>
+        <v>-23.94</v>
       </c>
     </row>
     <row r="59">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D59">
-        <v>38654</v>
+        <v>41259</v>
       </c>
       <c r="E59">
-        <v>-3592</v>
+        <v>2605</v>
       </c>
       <c r="F59">
-        <v>-8.5</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="60">
@@ -1910,17 +1910,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D60">
-        <v>6255</v>
+        <v>6248</v>
       </c>
       <c r="E60">
-        <v>523</v>
+        <v>-7</v>
       </c>
       <c r="F60">
-        <v>9.119999999999999</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="61">
@@ -1936,17 +1936,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D61">
-        <v>13339</v>
+        <v>14998</v>
       </c>
       <c r="E61">
-        <v>-1304</v>
+        <v>1659</v>
       </c>
       <c r="F61">
-        <v>-8.91</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="62">
@@ -1962,17 +1962,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D62">
-        <v>65263</v>
+        <v>64082</v>
       </c>
       <c r="E62">
-        <v>1170</v>
+        <v>-1181</v>
       </c>
       <c r="F62">
-        <v>1.83</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="63">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D63">
-        <v>137457</v>
+        <v>130608</v>
       </c>
       <c r="E63">
-        <v>-351</v>
+        <v>-6849</v>
       </c>
       <c r="F63">
-        <v>-0.25</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="64">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D64">
-        <v>78380</v>
+        <v>96772</v>
       </c>
       <c r="E64">
-        <v>-33031</v>
+        <v>18392</v>
       </c>
       <c r="F64">
-        <v>-29.65</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="65">
@@ -2040,17 +2040,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D65">
-        <v>10360</v>
+        <v>9682</v>
       </c>
       <c r="E65">
-        <v>-373</v>
+        <v>-678</v>
       </c>
       <c r="F65">
-        <v>-3.48</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="66">
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D66">
-        <v>2405</v>
+        <v>2279</v>
       </c>
       <c r="E66">
-        <v>-757</v>
+        <v>-126</v>
       </c>
       <c r="F66">
-        <v>-23.94</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="67">
@@ -2092,17 +2092,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D67">
-        <v>41259</v>
+        <v>41915</v>
       </c>
       <c r="E67">
-        <v>2605</v>
+        <v>656</v>
       </c>
       <c r="F67">
-        <v>6.74</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="68">
@@ -2118,17 +2118,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D68">
         <v>6248</v>
       </c>
       <c r="E68">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D69">
-        <v>14998</v>
+        <v>16996</v>
       </c>
       <c r="E69">
-        <v>1659</v>
+        <v>1998</v>
       </c>
       <c r="F69">
-        <v>12.44</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="70">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D70">
-        <v>64082</v>
+        <v>68351</v>
       </c>
       <c r="E70">
-        <v>-1181</v>
+        <v>4269</v>
       </c>
       <c r="F70">
-        <v>-1.81</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="71">
@@ -2196,17 +2196,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D71">
-        <v>130608</v>
+        <v>134574</v>
       </c>
       <c r="E71">
-        <v>-6849</v>
+        <v>3966</v>
       </c>
       <c r="F71">
-        <v>-4.98</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="72">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D72">
-        <v>96772</v>
+        <v>110115</v>
       </c>
       <c r="E72">
-        <v>18392</v>
+        <v>13343</v>
       </c>
       <c r="F72">
-        <v>23.47</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="73">
@@ -2248,17 +2248,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D73">
-        <v>9682</v>
+        <v>11592</v>
       </c>
       <c r="E73">
-        <v>-678</v>
+        <v>1910</v>
       </c>
       <c r="F73">
-        <v>-6.54</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="74">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D74">
-        <v>2279</v>
+        <v>2866</v>
       </c>
       <c r="E74">
-        <v>-126</v>
+        <v>587</v>
       </c>
       <c r="F74">
-        <v>-5.24</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="75">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D75">
-        <v>41915</v>
+        <v>41531</v>
       </c>
       <c r="E75">
-        <v>656</v>
+        <v>-384</v>
       </c>
       <c r="F75">
-        <v>1.59</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="76">
@@ -2326,17 +2326,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D76">
-        <v>6248</v>
+        <v>5898</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="77">
@@ -2352,17 +2352,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D77">
-        <v>16996</v>
+        <v>21123</v>
       </c>
       <c r="E77">
-        <v>1998</v>
+        <v>4127</v>
       </c>
       <c r="F77">
-        <v>13.32</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="78">
@@ -2378,17 +2378,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D78">
-        <v>68351</v>
+        <v>73886</v>
       </c>
       <c r="E78">
-        <v>4269</v>
+        <v>5535</v>
       </c>
       <c r="F78">
-        <v>6.66</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="79">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D79">
-        <v>134574</v>
+        <v>147605</v>
       </c>
       <c r="E79">
-        <v>3966</v>
+        <v>13031</v>
       </c>
       <c r="F79">
-        <v>3.04</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="80">
@@ -2430,17 +2430,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D80">
-        <v>110115</v>
+        <v>110761</v>
       </c>
       <c r="E80">
-        <v>13343</v>
+        <v>646</v>
       </c>
       <c r="F80">
-        <v>13.79</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="81">
@@ -2456,17 +2456,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D81">
-        <v>11592</v>
+        <v>13103</v>
       </c>
       <c r="E81">
-        <v>1910</v>
+        <v>1511</v>
       </c>
       <c r="F81">
-        <v>19.73</v>
+        <v>13.03</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.3.xlsx
+++ b/Data/t13.3.xlsx
@@ -402,17 +402,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D2">
-        <v>4604</v>
+        <v>4894</v>
       </c>
       <c r="E2">
-        <v>-461</v>
+        <v>290</v>
       </c>
       <c r="F2">
-        <v>-9.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3">
@@ -428,17 +428,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D3">
-        <v>47161</v>
+        <v>48306</v>
       </c>
       <c r="E3">
-        <v>508</v>
+        <v>1145</v>
       </c>
       <c r="F3">
-        <v>1.09</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="4">
@@ -454,17 +454,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D4">
-        <v>5985</v>
+        <v>6188</v>
       </c>
       <c r="E4">
-        <v>386</v>
+        <v>203</v>
       </c>
       <c r="F4">
-        <v>6.89</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="5">
@@ -480,17 +480,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D5">
-        <v>29872</v>
+        <v>27674</v>
       </c>
       <c r="E5">
-        <v>905</v>
+        <v>-2198</v>
       </c>
       <c r="F5">
-        <v>3.12</v>
+        <v>-7.36</v>
       </c>
     </row>
     <row r="6">
@@ -506,17 +506,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D6">
-        <v>65494</v>
+        <v>68655</v>
       </c>
       <c r="E6">
-        <v>1856</v>
+        <v>3161</v>
       </c>
       <c r="F6">
-        <v>2.92</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="7">
@@ -532,17 +532,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D7">
-        <v>124256</v>
+        <v>133255</v>
       </c>
       <c r="E7">
-        <v>10822</v>
+        <v>8999</v>
       </c>
       <c r="F7">
-        <v>9.539999999999999</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="8">
@@ -558,17 +558,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D8">
-        <v>115982</v>
+        <v>114287</v>
       </c>
       <c r="E8">
-        <v>3972</v>
+        <v>-1695</v>
       </c>
       <c r="F8">
-        <v>3.55</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="9">
@@ -584,17 +584,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D9">
-        <v>12421</v>
+        <v>13764</v>
       </c>
       <c r="E9">
-        <v>-720</v>
+        <v>1343</v>
       </c>
       <c r="F9">
-        <v>-5.48</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="10">
@@ -610,17 +610,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D10">
-        <v>4894</v>
+        <v>4296</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>-598</v>
       </c>
       <c r="F10">
-        <v>6.3</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="11">
@@ -636,17 +636,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D11">
-        <v>48306</v>
+        <v>48173</v>
       </c>
       <c r="E11">
-        <v>1145</v>
+        <v>-133</v>
       </c>
       <c r="F11">
-        <v>2.43</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="12">
@@ -662,17 +662,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D12">
-        <v>6188</v>
+        <v>6076</v>
       </c>
       <c r="E12">
-        <v>203</v>
+        <v>-112</v>
       </c>
       <c r="F12">
-        <v>3.39</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="13">
@@ -688,17 +688,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D13">
-        <v>27674</v>
+        <v>24703</v>
       </c>
       <c r="E13">
-        <v>-2198</v>
+        <v>-2971</v>
       </c>
       <c r="F13">
-        <v>-7.36</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="14">
@@ -714,17 +714,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D14">
-        <v>68655</v>
+        <v>67946</v>
       </c>
       <c r="E14">
-        <v>3161</v>
+        <v>-709</v>
       </c>
       <c r="F14">
-        <v>4.83</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="15">
@@ -740,17 +740,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D15">
-        <v>133255</v>
+        <v>137164</v>
       </c>
       <c r="E15">
-        <v>8999</v>
+        <v>3909</v>
       </c>
       <c r="F15">
-        <v>7.24</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="16">
@@ -766,17 +766,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D16">
-        <v>114287</v>
+        <v>105628</v>
       </c>
       <c r="E16">
-        <v>-1695</v>
+        <v>-8659</v>
       </c>
       <c r="F16">
-        <v>-1.46</v>
+        <v>-7.58</v>
       </c>
     </row>
     <row r="17">
@@ -792,17 +792,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D17">
-        <v>13764</v>
+        <v>10982</v>
       </c>
       <c r="E17">
-        <v>1343</v>
+        <v>-2782</v>
       </c>
       <c r="F17">
-        <v>10.81</v>
+        <v>-20.21</v>
       </c>
     </row>
     <row r="18">
@@ -818,17 +818,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D18">
-        <v>4296</v>
+        <v>3595</v>
       </c>
       <c r="E18">
-        <v>-598</v>
+        <v>-701</v>
       </c>
       <c r="F18">
-        <v>-12.22</v>
+        <v>-16.32</v>
       </c>
     </row>
     <row r="19">
@@ -844,17 +844,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D19">
-        <v>48173</v>
+        <v>43214</v>
       </c>
       <c r="E19">
-        <v>-133</v>
+        <v>-4959</v>
       </c>
       <c r="F19">
-        <v>-0.28</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="20">
@@ -870,17 +870,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D20">
-        <v>6076</v>
+        <v>4983</v>
       </c>
       <c r="E20">
-        <v>-112</v>
+        <v>-1093</v>
       </c>
       <c r="F20">
-        <v>-1.81</v>
+        <v>-17.99</v>
       </c>
     </row>
     <row r="21">
@@ -896,17 +896,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D21">
-        <v>24703</v>
+        <v>17332</v>
       </c>
       <c r="E21">
-        <v>-2971</v>
+        <v>-7371</v>
       </c>
       <c r="F21">
-        <v>-10.74</v>
+        <v>-29.84</v>
       </c>
     </row>
     <row r="22">
@@ -922,17 +922,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D22">
-        <v>67946</v>
+        <v>65635</v>
       </c>
       <c r="E22">
-        <v>-709</v>
+        <v>-2311</v>
       </c>
       <c r="F22">
-        <v>-1.03</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="23">
@@ -948,17 +948,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D23">
-        <v>137164</v>
+        <v>133542</v>
       </c>
       <c r="E23">
-        <v>3909</v>
+        <v>-3622</v>
       </c>
       <c r="F23">
-        <v>2.93</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="24">
@@ -974,17 +974,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D24">
-        <v>105628</v>
+        <v>103838</v>
       </c>
       <c r="E24">
-        <v>-8659</v>
+        <v>-1790</v>
       </c>
       <c r="F24">
-        <v>-7.58</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="25">
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D25">
-        <v>10982</v>
+        <v>10934</v>
       </c>
       <c r="E25">
-        <v>-2782</v>
+        <v>-48</v>
       </c>
       <c r="F25">
-        <v>-20.21</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="26">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D26">
-        <v>3595</v>
+        <v>3048</v>
       </c>
       <c r="E26">
-        <v>-701</v>
+        <v>-547</v>
       </c>
       <c r="F26">
-        <v>-16.32</v>
+        <v>-15.22</v>
       </c>
     </row>
     <row r="27">
@@ -1052,17 +1052,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D27">
-        <v>43214</v>
+        <v>42099</v>
       </c>
       <c r="E27">
-        <v>-4959</v>
+        <v>-1115</v>
       </c>
       <c r="F27">
-        <v>-10.29</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="28">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D28">
-        <v>4983</v>
+        <v>5678</v>
       </c>
       <c r="E28">
-        <v>-1093</v>
+        <v>695</v>
       </c>
       <c r="F28">
-        <v>-17.99</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="29">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D29">
-        <v>17332</v>
+        <v>15447</v>
       </c>
       <c r="E29">
-        <v>-7371</v>
+        <v>-1885</v>
       </c>
       <c r="F29">
-        <v>-29.84</v>
+        <v>-10.88</v>
       </c>
     </row>
     <row r="30">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D30">
-        <v>65635</v>
+        <v>66061</v>
       </c>
       <c r="E30">
-        <v>-2311</v>
+        <v>426</v>
       </c>
       <c r="F30">
-        <v>-3.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="31">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D31">
-        <v>133542</v>
+        <v>132640</v>
       </c>
       <c r="E31">
-        <v>-3622</v>
+        <v>-902</v>
       </c>
       <c r="F31">
-        <v>-2.64</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="32">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D32">
-        <v>103838</v>
+        <v>114675</v>
       </c>
       <c r="E32">
-        <v>-1790</v>
+        <v>10837</v>
       </c>
       <c r="F32">
-        <v>-1.69</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="33">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D33">
-        <v>10934</v>
+        <v>10814</v>
       </c>
       <c r="E33">
-        <v>-48</v>
+        <v>-120</v>
       </c>
       <c r="F33">
-        <v>-0.44</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="34">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D34">
-        <v>3048</v>
+        <v>2685</v>
       </c>
       <c r="E34">
-        <v>-547</v>
+        <v>-363</v>
       </c>
       <c r="F34">
-        <v>-15.22</v>
+        <v>-11.91</v>
       </c>
     </row>
     <row r="35">
@@ -1260,17 +1260,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D35">
-        <v>42099</v>
+        <v>42246</v>
       </c>
       <c r="E35">
-        <v>-1115</v>
+        <v>147</v>
       </c>
       <c r="F35">
-        <v>-2.58</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D36">
-        <v>5678</v>
+        <v>5732</v>
       </c>
       <c r="E36">
-        <v>695</v>
+        <v>54</v>
       </c>
       <c r="F36">
-        <v>13.95</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37">
@@ -1312,17 +1312,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D37">
-        <v>15447</v>
+        <v>14643</v>
       </c>
       <c r="E37">
-        <v>-1885</v>
+        <v>-804</v>
       </c>
       <c r="F37">
-        <v>-10.88</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="38">
@@ -1338,17 +1338,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D38">
-        <v>66061</v>
+        <v>64093</v>
       </c>
       <c r="E38">
-        <v>426</v>
+        <v>-1968</v>
       </c>
       <c r="F38">
-        <v>0.65</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="39">
@@ -1364,17 +1364,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D39">
-        <v>132640</v>
+        <v>137808</v>
       </c>
       <c r="E39">
-        <v>-902</v>
+        <v>5168</v>
       </c>
       <c r="F39">
-        <v>-0.68</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="40">
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D40">
-        <v>114675</v>
+        <v>111411</v>
       </c>
       <c r="E40">
-        <v>10837</v>
+        <v>-3264</v>
       </c>
       <c r="F40">
-        <v>10.44</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="41">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D41">
-        <v>10814</v>
+        <v>10733</v>
       </c>
       <c r="E41">
-        <v>-120</v>
+        <v>-81</v>
       </c>
       <c r="F41">
-        <v>-1.1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="42">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D42">
-        <v>2685</v>
+        <v>3162</v>
       </c>
       <c r="E42">
-        <v>-363</v>
+        <v>477</v>
       </c>
       <c r="F42">
-        <v>-11.91</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="43">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D43">
-        <v>42246</v>
+        <v>38654</v>
       </c>
       <c r="E43">
-        <v>147</v>
+        <v>-3592</v>
       </c>
       <c r="F43">
-        <v>0.35</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="44">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>5732</v>
+        <v>6255</v>
       </c>
       <c r="E44">
-        <v>54</v>
+        <v>523</v>
       </c>
       <c r="F44">
-        <v>0.95</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1520,17 +1520,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>14643</v>
+        <v>13339</v>
       </c>
       <c r="E45">
-        <v>-804</v>
+        <v>-1304</v>
       </c>
       <c r="F45">
-        <v>-5.2</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="46">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>64093</v>
+        <v>65263</v>
       </c>
       <c r="E46">
-        <v>-1968</v>
+        <v>1170</v>
       </c>
       <c r="F46">
-        <v>-2.98</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="47">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D47">
-        <v>137808</v>
+        <v>137457</v>
       </c>
       <c r="E47">
-        <v>5168</v>
+        <v>-351</v>
       </c>
       <c r="F47">
-        <v>3.9</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="48">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D48">
-        <v>111411</v>
+        <v>78380</v>
       </c>
       <c r="E48">
-        <v>-3264</v>
+        <v>-33031</v>
       </c>
       <c r="F48">
-        <v>-2.85</v>
+        <v>-29.65</v>
       </c>
     </row>
     <row r="49">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D49">
-        <v>10733</v>
+        <v>10360</v>
       </c>
       <c r="E49">
-        <v>-81</v>
+        <v>-373</v>
       </c>
       <c r="F49">
-        <v>-0.75</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="50">
@@ -1650,17 +1650,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D50">
-        <v>3162</v>
+        <v>2405</v>
       </c>
       <c r="E50">
-        <v>477</v>
+        <v>-757</v>
       </c>
       <c r="F50">
-        <v>17.77</v>
+        <v>-23.94</v>
       </c>
     </row>
     <row r="51">
@@ -1676,17 +1676,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D51">
-        <v>38654</v>
+        <v>41259</v>
       </c>
       <c r="E51">
-        <v>-3592</v>
+        <v>2605</v>
       </c>
       <c r="F51">
-        <v>-8.5</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="52">
@@ -1702,17 +1702,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D52">
-        <v>6255</v>
+        <v>6248</v>
       </c>
       <c r="E52">
-        <v>523</v>
+        <v>-7</v>
       </c>
       <c r="F52">
-        <v>9.119999999999999</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="53">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D53">
-        <v>13339</v>
+        <v>14998</v>
       </c>
       <c r="E53">
-        <v>-1304</v>
+        <v>1659</v>
       </c>
       <c r="F53">
-        <v>-8.91</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="54">
@@ -1754,17 +1754,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D54">
-        <v>65263</v>
+        <v>64082</v>
       </c>
       <c r="E54">
-        <v>1170</v>
+        <v>-1181</v>
       </c>
       <c r="F54">
-        <v>1.83</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="55">
@@ -1780,17 +1780,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D55">
-        <v>137457</v>
+        <v>130608</v>
       </c>
       <c r="E55">
-        <v>-351</v>
+        <v>-6849</v>
       </c>
       <c r="F55">
-        <v>-0.25</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="56">
@@ -1806,17 +1806,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D56">
-        <v>78380</v>
+        <v>96772</v>
       </c>
       <c r="E56">
-        <v>-33031</v>
+        <v>18392</v>
       </c>
       <c r="F56">
-        <v>-29.65</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="57">
@@ -1832,17 +1832,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D57">
-        <v>10360</v>
+        <v>9682</v>
       </c>
       <c r="E57">
-        <v>-373</v>
+        <v>-678</v>
       </c>
       <c r="F57">
-        <v>-3.48</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="58">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D58">
-        <v>2405</v>
+        <v>2279</v>
       </c>
       <c r="E58">
-        <v>-757</v>
+        <v>-126</v>
       </c>
       <c r="F58">
-        <v>-23.94</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="59">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D59">
-        <v>41259</v>
+        <v>41915</v>
       </c>
       <c r="E59">
-        <v>2605</v>
+        <v>656</v>
       </c>
       <c r="F59">
-        <v>6.74</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="60">
@@ -1910,17 +1910,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D60">
         <v>6248</v>
       </c>
       <c r="E60">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1936,17 +1936,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D61">
-        <v>14998</v>
+        <v>16996</v>
       </c>
       <c r="E61">
-        <v>1659</v>
+        <v>1998</v>
       </c>
       <c r="F61">
-        <v>12.44</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="62">
@@ -1962,17 +1962,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D62">
-        <v>64082</v>
+        <v>68351</v>
       </c>
       <c r="E62">
-        <v>-1181</v>
+        <v>4269</v>
       </c>
       <c r="F62">
-        <v>-1.81</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="63">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D63">
-        <v>130608</v>
+        <v>134574</v>
       </c>
       <c r="E63">
-        <v>-6849</v>
+        <v>3966</v>
       </c>
       <c r="F63">
-        <v>-4.98</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="64">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D64">
-        <v>96772</v>
+        <v>110115</v>
       </c>
       <c r="E64">
-        <v>18392</v>
+        <v>13343</v>
       </c>
       <c r="F64">
-        <v>23.47</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="65">
@@ -2040,17 +2040,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D65">
-        <v>9682</v>
+        <v>11592</v>
       </c>
       <c r="E65">
-        <v>-678</v>
+        <v>1910</v>
       </c>
       <c r="F65">
-        <v>-6.54</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="66">
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D66">
-        <v>2279</v>
+        <v>2866</v>
       </c>
       <c r="E66">
-        <v>-126</v>
+        <v>587</v>
       </c>
       <c r="F66">
-        <v>-5.24</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="67">
@@ -2092,17 +2092,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D67">
-        <v>41915</v>
+        <v>41531</v>
       </c>
       <c r="E67">
-        <v>656</v>
+        <v>-384</v>
       </c>
       <c r="F67">
-        <v>1.59</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="68">
@@ -2118,17 +2118,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D68">
-        <v>6248</v>
+        <v>5898</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="69">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D69">
-        <v>16996</v>
+        <v>21123</v>
       </c>
       <c r="E69">
-        <v>1998</v>
+        <v>4127</v>
       </c>
       <c r="F69">
-        <v>13.32</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="70">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D70">
-        <v>68351</v>
+        <v>73886</v>
       </c>
       <c r="E70">
-        <v>4269</v>
+        <v>5535</v>
       </c>
       <c r="F70">
-        <v>6.66</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="71">
@@ -2196,17 +2196,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D71">
-        <v>134574</v>
+        <v>147605</v>
       </c>
       <c r="E71">
-        <v>3966</v>
+        <v>13031</v>
       </c>
       <c r="F71">
-        <v>3.04</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="72">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D72">
-        <v>110115</v>
+        <v>110761</v>
       </c>
       <c r="E72">
-        <v>13343</v>
+        <v>646</v>
       </c>
       <c r="F72">
-        <v>13.79</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="73">
@@ -2248,17 +2248,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D73">
-        <v>11592</v>
+        <v>13103</v>
       </c>
       <c r="E73">
-        <v>1910</v>
+        <v>1511</v>
       </c>
       <c r="F73">
-        <v>19.73</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="74">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D74">
-        <v>2866</v>
+        <v>3143</v>
       </c>
       <c r="E74">
-        <v>587</v>
+        <v>277</v>
       </c>
       <c r="F74">
-        <v>25.76</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="75">
@@ -2300,17 +2300,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D75">
-        <v>41531</v>
+        <v>45289</v>
       </c>
       <c r="E75">
-        <v>-384</v>
+        <v>3758</v>
       </c>
       <c r="F75">
-        <v>-0.92</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -2326,17 +2326,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D76">
-        <v>5898</v>
+        <v>7006</v>
       </c>
       <c r="E76">
-        <v>-350</v>
+        <v>1108</v>
       </c>
       <c r="F76">
-        <v>-5.6</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="77">
@@ -2352,17 +2352,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D77">
-        <v>21123</v>
+        <v>23979</v>
       </c>
       <c r="E77">
-        <v>4127</v>
+        <v>2856</v>
       </c>
       <c r="F77">
-        <v>24.28</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="78">
@@ -2378,17 +2378,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D78">
-        <v>73886</v>
+        <v>76807</v>
       </c>
       <c r="E78">
-        <v>5535</v>
+        <v>2921</v>
       </c>
       <c r="F78">
-        <v>8.1</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="79">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D79">
-        <v>147605</v>
+        <v>160044</v>
       </c>
       <c r="E79">
-        <v>13031</v>
+        <v>12439</v>
       </c>
       <c r="F79">
-        <v>9.68</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="80">
@@ -2430,17 +2430,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D80">
-        <v>110761</v>
+        <v>122930</v>
       </c>
       <c r="E80">
-        <v>646</v>
+        <v>12169</v>
       </c>
       <c r="F80">
-        <v>0.59</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="81">
@@ -2456,17 +2456,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D81">
-        <v>13103</v>
+        <v>12906</v>
       </c>
       <c r="E81">
-        <v>1511</v>
+        <v>-197</v>
       </c>
       <c r="F81">
-        <v>13.03</v>
+        <v>-1.5</v>
       </c>
     </row>
   </sheetData>
